--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf8-Fgfrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf8-Fgfrl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Fgf8</t>
+  </si>
+  <si>
+    <t>Fgfrl1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf8</t>
-  </si>
-  <si>
-    <t>Fgfrl1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.02530666666666667</v>
+        <v>0.07200033333333333</v>
       </c>
       <c r="H2">
-        <v>0.07592</v>
+        <v>0.216001</v>
       </c>
       <c r="I2">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9048976666666667</v>
+        <v>0.9024219999999999</v>
       </c>
       <c r="N2">
-        <v>2.714693</v>
+        <v>2.707266</v>
       </c>
       <c r="O2">
-        <v>0.1425809899086412</v>
+        <v>0.1598232588650983</v>
       </c>
       <c r="P2">
-        <v>0.1425809899086412</v>
+        <v>0.1598232588650983</v>
       </c>
       <c r="Q2">
-        <v>0.02289994361777778</v>
+        <v>0.06497468480733333</v>
       </c>
       <c r="R2">
-        <v>0.20609949256</v>
+        <v>0.5847721632659999</v>
       </c>
       <c r="S2">
-        <v>0.04979299778681221</v>
+        <v>0.1598232588650983</v>
       </c>
       <c r="T2">
-        <v>0.04979299778681221</v>
+        <v>0.1598232588650983</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.02530666666666667</v>
+        <v>0.07200033333333333</v>
       </c>
       <c r="H3">
-        <v>0.07592</v>
+        <v>0.216001</v>
       </c>
       <c r="I3">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +629,22 @@
         <v>7.499938999999999</v>
       </c>
       <c r="O3">
-        <v>0.3939114761317116</v>
+        <v>0.4427583740457889</v>
       </c>
       <c r="P3">
-        <v>0.3939114761317116</v>
+        <v>0.4427583740457889</v>
       </c>
       <c r="Q3">
-        <v>0.06326615209777778</v>
+        <v>0.1799993693265556</v>
       </c>
       <c r="R3">
-        <v>0.56939536888</v>
+        <v>1.619994323939</v>
       </c>
       <c r="S3">
-        <v>0.1375641540418112</v>
+        <v>0.4427583740457889</v>
       </c>
       <c r="T3">
-        <v>0.1375641540418112</v>
+        <v>0.4427583740457889</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.02530666666666667</v>
+        <v>0.07200033333333333</v>
       </c>
       <c r="H4">
-        <v>0.07592</v>
+        <v>0.216001</v>
       </c>
       <c r="I4">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.316536</v>
+        <v>0.3134460000000001</v>
       </c>
       <c r="N4">
-        <v>0.949608</v>
+        <v>0.9403380000000001</v>
       </c>
       <c r="O4">
-        <v>0.04987527085573395</v>
+        <v>0.05551278802847185</v>
       </c>
       <c r="P4">
-        <v>0.04987527085573395</v>
+        <v>0.05551278802847184</v>
       </c>
       <c r="Q4">
-        <v>0.00801047104</v>
+        <v>0.022568216482</v>
       </c>
       <c r="R4">
-        <v>0.07209423936000001</v>
+        <v>0.203113948338</v>
       </c>
       <c r="S4">
-        <v>0.01741774448983335</v>
+        <v>0.05551278802847185</v>
       </c>
       <c r="T4">
-        <v>0.01741774448983335</v>
+        <v>0.05551278802847184</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.02530666666666667</v>
+        <v>0.07200033333333333</v>
       </c>
       <c r="H5">
-        <v>0.07592</v>
+        <v>0.216001</v>
       </c>
       <c r="I5">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.464842666666667</v>
+        <v>1.673665666666666</v>
       </c>
       <c r="N5">
-        <v>7.394528</v>
+        <v>5.020996999999999</v>
       </c>
       <c r="O5">
-        <v>0.3883750840876537</v>
+        <v>0.2964142065433844</v>
       </c>
       <c r="P5">
-        <v>0.3883750840876537</v>
+        <v>0.2964142065433844</v>
       </c>
       <c r="Q5">
-        <v>0.06237695175111112</v>
+        <v>0.1205044858885555</v>
       </c>
       <c r="R5">
-        <v>0.5613925657600001</v>
+        <v>1.084540372997</v>
       </c>
       <c r="S5">
-        <v>0.1356307016441715</v>
+        <v>0.2964142065433844</v>
       </c>
       <c r="T5">
-        <v>0.1356307016441715</v>
+        <v>0.2964142065433844</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,371 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.07200033333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.216001</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G6">
-        <v>0.02530666666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.07592</v>
-      </c>
-      <c r="I6">
-        <v>0.3492260631569263</v>
-      </c>
-      <c r="J6">
-        <v>0.3492260631569263</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M6">
-        <v>0.160296</v>
+        <v>0.1246176666666667</v>
       </c>
       <c r="N6">
-        <v>0.480888</v>
+        <v>0.373853</v>
       </c>
       <c r="O6">
-        <v>0.02525717901625954</v>
+        <v>0.02207038569408902</v>
       </c>
       <c r="P6">
-        <v>0.02525717901625954</v>
+        <v>0.02207038569408902</v>
       </c>
       <c r="Q6">
-        <v>0.00405655744</v>
+        <v>0.008972513539222222</v>
       </c>
       <c r="R6">
-        <v>0.03650901696</v>
+        <v>0.080752621853</v>
       </c>
       <c r="S6">
-        <v>0.008820465194298048</v>
+        <v>0.02207038569408902</v>
       </c>
       <c r="T6">
-        <v>0.008820465194298048</v>
+        <v>0.02207038569408902</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.04715833333333333</v>
+        <v>0.07200033333333333</v>
       </c>
       <c r="H7">
-        <v>0.141475</v>
+        <v>0.216001</v>
       </c>
       <c r="I7">
-        <v>0.6507739368430736</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.6507739368430736</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.9048976666666667</v>
+        <v>0.1322436666666667</v>
       </c>
       <c r="N7">
-        <v>2.714693</v>
+        <v>0.396731</v>
       </c>
       <c r="O7">
-        <v>0.1425809899086412</v>
+        <v>0.02342098682316748</v>
       </c>
       <c r="P7">
-        <v>0.1425809899086412</v>
+        <v>0.02342098682316748</v>
       </c>
       <c r="Q7">
-        <v>0.04267346579722222</v>
+        <v>0.009521588081222223</v>
       </c>
       <c r="R7">
-        <v>0.384061192175</v>
+        <v>0.085694292731</v>
       </c>
       <c r="S7">
-        <v>0.09278799212182899</v>
+        <v>0.02342098682316748</v>
       </c>
       <c r="T7">
-        <v>0.09278799212182899</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.04715833333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.141475</v>
-      </c>
-      <c r="I8">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="J8">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>2.499979666666666</v>
-      </c>
-      <c r="N8">
-        <v>7.499938999999999</v>
-      </c>
-      <c r="O8">
-        <v>0.3939114761317116</v>
-      </c>
-      <c r="P8">
-        <v>0.3939114761317116</v>
-      </c>
-      <c r="Q8">
-        <v>0.1178948744472222</v>
-      </c>
-      <c r="R8">
-        <v>1.061053870025</v>
-      </c>
-      <c r="S8">
-        <v>0.2563473220899004</v>
-      </c>
-      <c r="T8">
-        <v>0.2563473220899004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.04715833333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.141475</v>
-      </c>
-      <c r="I9">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="J9">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.316536</v>
-      </c>
-      <c r="N9">
-        <v>0.949608</v>
-      </c>
-      <c r="O9">
-        <v>0.04987527085573395</v>
-      </c>
-      <c r="P9">
-        <v>0.04987527085573395</v>
-      </c>
-      <c r="Q9">
-        <v>0.0149273102</v>
-      </c>
-      <c r="R9">
-        <v>0.1343457918</v>
-      </c>
-      <c r="S9">
-        <v>0.03245752636590059</v>
-      </c>
-      <c r="T9">
-        <v>0.03245752636590059</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.04715833333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.141475</v>
-      </c>
-      <c r="I10">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="J10">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.464842666666667</v>
-      </c>
-      <c r="N10">
-        <v>7.394528</v>
-      </c>
-      <c r="O10">
-        <v>0.3883750840876537</v>
-      </c>
-      <c r="P10">
-        <v>0.3883750840876537</v>
-      </c>
-      <c r="Q10">
-        <v>0.1162378720888889</v>
-      </c>
-      <c r="R10">
-        <v>1.0461408488</v>
-      </c>
-      <c r="S10">
-        <v>0.2527443824434821</v>
-      </c>
-      <c r="T10">
-        <v>0.2527443824434821</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.04715833333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.141475</v>
-      </c>
-      <c r="I11">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="J11">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>0.160296</v>
-      </c>
-      <c r="N11">
-        <v>0.480888</v>
-      </c>
-      <c r="O11">
-        <v>0.02525717901625954</v>
-      </c>
-      <c r="P11">
-        <v>0.02525717901625954</v>
-      </c>
-      <c r="Q11">
-        <v>0.007559292199999999</v>
-      </c>
-      <c r="R11">
-        <v>0.0680336298</v>
-      </c>
-      <c r="S11">
-        <v>0.01643671382196149</v>
-      </c>
-      <c r="T11">
-        <v>0.01643671382196149</v>
+        <v>0.02342098682316748</v>
       </c>
     </row>
   </sheetData>
